--- a/StructureDefinition-rs-location-incident.xlsx
+++ b/StructureDefinition-rs-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T12:05:31+00:00</t>
+    <t>2025-10-15T14:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-incident.xlsx
+++ b/StructureDefinition-rs-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:23:03+00:00</t>
+    <t>2025-10-15T15:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-incident.xlsx
+++ b/StructureDefinition-rs-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:54:27+00:00</t>
+    <t>2025-10-15T16:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-incident.xlsx
+++ b/StructureDefinition-rs-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T16:03:41+00:00</t>
+    <t>2025-10-15T17:01:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-incident.xlsx
+++ b/StructureDefinition-rs-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:01:16+00:00</t>
+    <t>2025-10-15T17:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-incident.xlsx
+++ b/StructureDefinition-rs-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T17:40:06+00:00</t>
+    <t>2025-10-15T18:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-incident.xlsx
+++ b/StructureDefinition-rs-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:08:27+00:00</t>
+    <t>2025-10-15T18:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-incident.xlsx
+++ b/StructureDefinition-rs-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:32:50+00:00</t>
+    <t>2025-10-15T18:40:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-incident.xlsx
+++ b/StructureDefinition-rs-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T18:40:48+00:00</t>
+    <t>2025-10-16T02:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-rs-location-incident.xlsx
+++ b/StructureDefinition-rs-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T02:41:49+00:00</t>
+    <t>2025-10-16T07:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -534,7 +534,7 @@
 </t>
   </si>
   <si>
-    <t>Name of the location as used by humans</t>
+    <t>Location name</t>
   </si>
   <si>
     <t>Name of the location as used by humans. Does not need to be unique.</t>
@@ -646,7 +646,7 @@
 </t>
   </si>
   <si>
-    <t>Physical location</t>
+    <t>Location address</t>
   </si>
   <si>
     <t>Physical location.</t>
@@ -1043,7 +1043,7 @@
 </t>
   </si>
   <si>
-    <t>Longitude with WGS84 datum</t>
+    <t>Longitude</t>
   </si>
   <si>
     <t>Longitude. The value domain and the interpretation are the same as for the text of the longitude element in KML (see notes below).</t>
@@ -1055,7 +1055,7 @@
     <t>Location.position.latitude</t>
   </si>
   <si>
-    <t>Latitude with WGS84 datum</t>
+    <t>Latitude</t>
   </si>
   <si>
     <t>Latitude. The value domain and the interpretation are the same as for the text of the latitude element in KML (see notes below).</t>
@@ -5468,7 +5468,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
         <v>313</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>85</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>76</v>

--- a/StructureDefinition-rs-location-incident.xlsx
+++ b/StructureDefinition-rs-location-incident.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-16T07:04:25+00:00</t>
+    <t>2025-10-16T07:32:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
